--- a/test/docs/inventario-pruebas-exploratorias.xlsx
+++ b/test/docs/inventario-pruebas-exploratorias.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios PE" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Lists" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="H0XX  Funcionalidades" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Escenarios PE'!$A$1:$J$47</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="115">
   <si>
     <t xml:space="preserve">PRUEBAS EXPLORATORIAS</t>
   </si>
@@ -32,7 +33,7 @@
     <t xml:space="preserve">Aplicación bajo pruebas (APB)</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;Nombre del APB&gt;</t>
+    <t xml:space="preserve">Ghost v3.3.0</t>
   </si>
   <si>
     <t xml:space="preserve">Versión/Hash commit</t>
@@ -83,36 +84,307 @@
  (Id de las incidencias)</t>
   </si>
   <si>
+    <t xml:space="preserve">PE01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/04/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anderson Cáceres </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funcional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validacion de nuevo email de Adminstrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE01%20Actualizacion%20de%20Datos%20de%20Administrado.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS01 (https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/issues)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descartar errores en actualizacion de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE02%20Actualizacion%20de%20Datos%20de%20Administrador.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS02 (https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/issues)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar un autor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE03%20Agregar%20contribuidores%20de%20contenido.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS03 (https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/issues)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar un editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE04%20Angregar%20contribuidor%20de%20contenido.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar un post de solo texto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE05%20Agregar%20un%20post.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregra un post con imagenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE06%20Agregar%20un%20post.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificar el título de un post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE07%20Modificar%20un%20post.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambiar la imagen en el contenido de un post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE08%20Modificar%20un%20post.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar un post propio del administrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE09%20Eliminar%20un%20post.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar un post no propio del administrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE10%20Eliminar%20un%20post.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear un tag simple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE11%20Crear%20un%20tag.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear un tag con imagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE12%20Crear%20un%20tag.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacionar un TAG a un post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE13%20Relacionar%20tag%20con%20post.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacionar un TAG a un post ya relacionado a otro TAG.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE14%20Relacionar%20tag%20con%20post.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS04 (https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/issues)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar un tag no relacionado a un post </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE15%20Eliminacion%20de%20una%20TAG.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar un tag relacionado a un post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE16%20Eliminacion%20de%20una%20TAG.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualizar en mayor detalle un post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE17%20Visualizar%20en%20detalle%20un%20post.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualizar otros post relacionados al post seleccionado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE18%20Visualizar%20en%20detalle%20un%20post.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descartar entradas por actualizacion de links.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE19%20Link%20a%20redes%20sociales.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS05 (https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/issues)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enlace directo a publicacion en redes sociales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE20%20Link%20a%20redes%20sociales.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS06 (https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/issues)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Plantilla elaborada por </t>
   </si>
   <si>
     <t xml:space="preserve">Tipo de requerimiento</t>
   </si>
   <si>
-    <t xml:space="preserve">Funcional</t>
-  </si>
-  <si>
     <t xml:space="preserve">No funcional</t>
   </si>
   <si>
     <t xml:space="preserve">Tipo de escenario</t>
   </si>
   <si>
-    <t xml:space="preserve">Positivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mix</t>
+    <t xml:space="preserve">HU001: Como administrador de la página,  quiero actualizar mis datos, para que en caso de que esta cambie, no esté incorrecta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU002: Como administrador de la página, quisiera agregar a la página contribuidores de contenido, para erriquecer el contenido en general de la página con mas ideas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU003: Como administrador de la pagina, quiero agregar un nuevo post a la pagina web para poder adicionar mayor contenido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU004: Como administrador de la página, quiero editar un post, para mantener mis publicaciones con las novedades asociadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU005: Como administrador de la página,  quiero eliminar cualquier post, para retirar el contenido de poco interes o obsoleto de la página.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU006: Como administrador de la página,  quiero crear TAGs para separar el contenido de la página por tematicas distintas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU007: Como administrador quiero relacionar un post a un TAG, para poder agrupar por temas las publicaciones de la página.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU008: Como administrador quiero eliminar TAGs para remover los grupos de temas que hallan dejado de ser relevantes para los lectores del post.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU009: Como usuario, deseo poder visulizar en mayor detalle, el post que seleccione de la página principal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU010: Como administrador de la página, quisiera agregar un enlace directo desde esta página a mis publicaciones en redes sociales, para que mis lectores tengan mas informacion relacionada a los temas publicados.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -228,7 +500,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -265,8 +537,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -346,15 +630,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1923840</xdr:colOff>
+      <xdr:colOff>1924560</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>373320</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>279360</xdr:rowOff>
+      <xdr:rowOff>279720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -367,8 +651,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2943360" y="10025640"/>
-          <a:ext cx="3147480" cy="223200"/>
+          <a:off x="2944080" y="14063760"/>
+          <a:ext cx="3146760" cy="223200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -390,8 +674,8 @@
   </sheetPr>
   <dimension ref="B1:J42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D7" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -401,7 +685,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="41.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="28.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.5"/>
   </cols>
@@ -539,234 +823,593 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="79" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="39.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="52.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="39.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="79" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="65.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="39.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="39.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="39.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
     </row>
@@ -892,17 +1535,17 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
+      <c r="B42" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -923,6 +1566,32 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I10" r:id="rId1" display="https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE01%20Actualizacion%20de%20Datos%20de%20Administrado.mp4"/>
+    <hyperlink ref="I11" r:id="rId2" display="https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE02%20Actualizacion%20de%20Datos%20de%20Administrador.mp4"/>
+    <hyperlink ref="J11" r:id="rId3" display="https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/issues"/>
+    <hyperlink ref="I12" r:id="rId4" display="https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master"/>
+    <hyperlink ref="J12" r:id="rId5" display="https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/issues"/>
+    <hyperlink ref="I13" r:id="rId6" display="https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE04%20Angregar%20contribuidor%20de%20contenido.mp4"/>
+    <hyperlink ref="J13" r:id="rId7" display="https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/issues"/>
+    <hyperlink ref="I14" r:id="rId8" display="https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE05%20Agregar%20un%20post.mp4"/>
+    <hyperlink ref="I15" r:id="rId9" display="https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE06%20Agregar%20un%20post.mp4"/>
+    <hyperlink ref="I16" r:id="rId10" display="https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE07%20Modificar%20un%20post.mp4"/>
+    <hyperlink ref="I19" r:id="rId11" display="https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE10%20Eliminar%20un%20post.mp4"/>
+    <hyperlink ref="I20" r:id="rId12" display="https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE11%20Crear%20un%20tag.mp4"/>
+    <hyperlink ref="I21" r:id="rId13" display="https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE12%20Crear%20un%20tag.mp4"/>
+    <hyperlink ref="I22" r:id="rId14" display="https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE13%20Relacionar%20tag%20con%20post.mp4"/>
+    <hyperlink ref="I23" r:id="rId15" display="https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE14%20Relacionar%20tag%20con%20post.mp4"/>
+    <hyperlink ref="J23" r:id="rId16" display="https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/issues"/>
+    <hyperlink ref="I24" r:id="rId17" display="https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE15%20Eliminacion%20de%20una%20TAG.mp4"/>
+    <hyperlink ref="I25" r:id="rId18" display="https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE16%20Eliminacion%20de%20una%20TAG.mp4"/>
+    <hyperlink ref="I26" r:id="rId19" display="https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE17%20Visualizar%20en%20detalle%20un%20post.mp4"/>
+    <hyperlink ref="I27" r:id="rId20" display="https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE18%20Visualizar%20en%20detalle%20un%20post.mp4"/>
+    <hyperlink ref="I28" r:id="rId21" display="https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE19%20Link%20a%20redes%20sociales.mp4"/>
+    <hyperlink ref="J28" r:id="rId22" display="https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/issues"/>
+    <hyperlink ref="I29" r:id="rId23" display="https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/blob/master/test/videos/PE20%20Link%20a%20redes%20sociales.mp4"/>
+    <hyperlink ref="J29" r:id="rId24" display="https://github.com/anderson0365/MISO_PruebasAutomatizadasDeSoftware_practica_ghost_anderson_caceres/issues"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -930,7 +1599,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId25"/>
 </worksheet>
 </file>
 
@@ -953,33 +1622,33 @@
   <sheetData>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -991,4 +1660,110 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="90.37"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12"/>
+    </row>
+    <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12"/>
+    </row>
+    <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12"/>
+    </row>
+    <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12"/>
+    </row>
+    <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12"/>
+    </row>
+    <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12"/>
+    </row>
+    <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12"/>
+    </row>
+    <row r="19" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>